--- a/ref/AMP_MAP.xlsx
+++ b/ref/AMP_MAP.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11049\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20101\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0C5BA4-6D91-499E-B4A3-65AA2206BFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6A9427-7F48-4B8F-80F7-E247A62B2340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="790" windowWidth="20060" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -253,6 +264,1302 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9277340332458441E-2"/>
+                  <c:y val="0.1152639253426655"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C849-4C70-8DC3-9A515F010831}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106627087"/>
+        <c:axId val="106624207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="106627087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106624207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="106624207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106627087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>729029</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106241</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27109</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D1A6DD-7E30-F33B-8C17-CFA87C8D8A6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,16 +1828,16 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="3" max="10" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="3" max="10" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>8</v>
       </c>
@@ -541,12 +1848,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10">
-        <v>3.3</v>
+        <v>559</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -555,14 +1862,14 @@
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>3.3</v>
+        <v>559</v>
       </c>
       <c r="F2" s="12">
         <f>FLOOR($B$5*E2/$B$3/$B$2,1)</f>
         <v>32767</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -575,13 +1882,15 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>559</v>
+      </c>
       <c r="F3" s="12">
         <f t="shared" ref="F3:F66" si="0">FLOOR($B$5*E3/$B$3/$B$2,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -594,13 +1903,15 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>559</v>
+      </c>
       <c r="F4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -612,583 +1923,699 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>559</v>
+      </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>559</v>
+      </c>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>559</v>
+      </c>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>559</v>
+      </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>7</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>559</v>
+      </c>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>559</v>
+      </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>9</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>555</v>
+      </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>10</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>555</v>
+      </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>11</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>555</v>
+      </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14">
         <v>12</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5">
+        <v>550</v>
+      </c>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15">
         <v>13</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5">
+        <v>546</v>
+      </c>
       <c r="F15" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>14</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>546</v>
+      </c>
       <c r="F16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+        <v>32005</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>15</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5">
+        <v>542</v>
+      </c>
       <c r="F17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+        <v>31770</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>16</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5">
+        <v>542</v>
+      </c>
       <c r="F18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+        <v>31770</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>17</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>538</v>
+      </c>
       <c r="F19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+        <v>31536</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>18</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5">
+        <v>533</v>
+      </c>
       <c r="F20" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+        <v>31243</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>19</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5">
+        <v>529</v>
+      </c>
       <c r="F21" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+        <v>31008</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>20</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5">
+        <v>525</v>
+      </c>
       <c r="F22" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+        <v>30774</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>21</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>521</v>
+      </c>
       <c r="F23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+        <v>30540</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D24">
         <v>22</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>521</v>
+      </c>
       <c r="F24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+        <v>30540</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>23</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5">
+        <v>516</v>
+      </c>
       <c r="F25" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+        <v>30246</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>24</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5">
+        <v>512</v>
+      </c>
       <c r="F26" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+        <v>30012</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>25</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5">
+        <v>508</v>
+      </c>
       <c r="F27" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+        <v>29777</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>26</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5">
+        <v>503</v>
+      </c>
       <c r="F28" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
+        <v>29484</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>27</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5">
+        <v>503</v>
+      </c>
       <c r="F29" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
+        <v>29484</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D30">
         <v>28</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5">
+        <v>499</v>
+      </c>
       <c r="F30" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
+        <v>29250</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D31">
         <v>29</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5">
+        <v>499</v>
+      </c>
       <c r="F31" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
+        <v>29250</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5">
+        <v>495</v>
+      </c>
       <c r="F32" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+        <v>29015</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33">
         <v>31</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5">
+        <v>495</v>
+      </c>
       <c r="F33" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+        <v>29015</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5">
+        <v>491</v>
+      </c>
       <c r="F34" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+        <v>28781</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D35">
         <v>33</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5">
+        <v>486</v>
+      </c>
       <c r="F35" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+        <v>28488</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D36">
         <v>34</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5">
+        <v>482</v>
+      </c>
       <c r="F36" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+        <v>28253</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D37">
         <v>35</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5">
+        <v>482</v>
+      </c>
       <c r="F37" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+        <v>28253</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D38">
         <v>36</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5">
+        <v>478</v>
+      </c>
       <c r="F38" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+        <v>28019</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D39">
         <v>37</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5">
+        <v>478</v>
+      </c>
       <c r="F39" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+        <v>28019</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D40">
         <v>38</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5">
+        <v>474</v>
+      </c>
       <c r="F40" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+        <v>27784</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D41">
         <v>39</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5">
+        <v>469</v>
+      </c>
       <c r="F41" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
+        <v>27491</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D42">
         <v>40</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5">
+        <v>469</v>
+      </c>
       <c r="F42" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
+        <v>27491</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D43">
         <v>41</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5">
+        <v>469</v>
+      </c>
       <c r="F43" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
+        <v>27491</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D44">
         <v>42</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="5">
+        <v>465</v>
+      </c>
       <c r="F44" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
+        <v>27257</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D45">
         <v>43</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="5">
+        <v>461</v>
+      </c>
       <c r="F45" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.3">
+        <v>27022</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D46">
         <v>44</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5">
+        <v>461</v>
+      </c>
       <c r="F46" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
+        <v>27022</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D47">
         <v>45</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5">
+        <v>461</v>
+      </c>
       <c r="F47" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.3">
+        <v>27022</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D48">
         <v>46</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5">
+        <v>461</v>
+      </c>
       <c r="F48" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
+        <v>27022</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D49">
         <v>47</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5">
+        <v>461</v>
+      </c>
       <c r="F49" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
+        <v>27022</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D50">
         <v>48</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5">
+        <v>456</v>
+      </c>
       <c r="F50" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D51">
         <v>49</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5">
+        <v>456</v>
+      </c>
       <c r="F51" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D52">
         <v>50</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5">
+        <v>456</v>
+      </c>
       <c r="F52" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53">
         <v>51</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5">
+        <v>456</v>
+      </c>
       <c r="F53" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D54">
         <v>52</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5">
+        <v>456</v>
+      </c>
       <c r="F54" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D55">
         <v>53</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5">
+        <v>456</v>
+      </c>
       <c r="F55" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D56">
         <v>54</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5">
+        <v>456</v>
+      </c>
       <c r="F56" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D57">
         <v>55</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5">
+        <v>456</v>
+      </c>
       <c r="F57" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D58">
         <v>56</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5">
+        <v>456</v>
+      </c>
       <c r="F58" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D59">
         <v>57</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5">
+        <v>456</v>
+      </c>
       <c r="F59" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D60">
         <v>58</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5">
+        <v>456</v>
+      </c>
       <c r="F60" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D61">
         <v>59</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5">
+        <v>456</v>
+      </c>
       <c r="F61" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D62">
         <v>60</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5">
+        <v>456</v>
+      </c>
       <c r="F62" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.3">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D63">
         <v>61</v>
       </c>
@@ -1198,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D64">
         <v>62</v>
       </c>
@@ -1208,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D65">
         <v>63</v>
       </c>
@@ -1218,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D66">
         <v>64</v>
       </c>
@@ -1228,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D67">
         <v>65</v>
       </c>
@@ -1238,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D68">
         <v>66</v>
       </c>
@@ -1248,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D69">
         <v>67</v>
       </c>
@@ -1258,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D70">
         <v>68</v>
       </c>
@@ -1268,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D71">
         <v>69</v>
       </c>
@@ -1278,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D72">
         <v>70</v>
       </c>
@@ -1288,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D73">
         <v>71</v>
       </c>
@@ -1298,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D74">
         <v>72</v>
       </c>
@@ -1308,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D75">
         <v>73</v>
       </c>
@@ -1318,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D76">
         <v>74</v>
       </c>
@@ -1328,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D77">
         <v>75</v>
       </c>
@@ -1338,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D78">
         <v>76</v>
       </c>
@@ -1348,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D79">
         <v>77</v>
       </c>
@@ -1358,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D80">
         <v>78</v>
       </c>
@@ -1368,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D81">
         <v>79</v>
       </c>
@@ -1378,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D82">
         <v>80</v>
       </c>
@@ -1388,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D83">
         <v>81</v>
       </c>
@@ -1398,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D84">
         <v>82</v>
       </c>
@@ -1408,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D85">
         <v>83</v>
       </c>
@@ -1418,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D86">
         <v>84</v>
       </c>
@@ -1428,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D87">
         <v>85</v>
       </c>
@@ -1438,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D88">
         <v>86</v>
       </c>
@@ -1448,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D89">
         <v>87</v>
       </c>
@@ -1458,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D90">
         <v>88</v>
       </c>
@@ -1468,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D91">
         <v>89</v>
       </c>
@@ -1478,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D92">
         <v>90</v>
       </c>
@@ -1488,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D93">
         <v>91</v>
       </c>
@@ -1498,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D94">
         <v>92</v>
       </c>
@@ -1508,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D95">
         <v>93</v>
       </c>
@@ -1518,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D96">
         <v>94</v>
       </c>
@@ -1528,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D97">
         <v>95</v>
       </c>
@@ -1538,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D98">
         <v>96</v>
       </c>
@@ -1548,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D99">
         <v>97</v>
       </c>
@@ -1558,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D100">
         <v>98</v>
       </c>
@@ -1568,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D101">
         <v>99</v>
       </c>
@@ -1582,5 +3009,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>